--- a/Ejercicios/Normalizacion/ejercicios6al10.xlsx
+++ b/Ejercicios/Normalizacion/ejercicios6al10.xlsx
@@ -9,11 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Ejercicio6" sheetId="1" r:id="rId1"/>
+    <sheet name="Ejercicio7" sheetId="2" r:id="rId2"/>
+    <sheet name="Ejercicio8" sheetId="3" r:id="rId3"/>
+    <sheet name="Ejercicio9" sheetId="4" r:id="rId4"/>
+    <sheet name="Hoja4" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Hoja4!$A$31:$F$41</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="117">
   <si>
     <t>Restaurante</t>
   </si>
@@ -69,13 +76,375 @@
   </si>
   <si>
     <t>1 FN</t>
+  </si>
+  <si>
+    <r>
+      <t>Prestamos_libro (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>codLibro, Titulo, Autor, Editorial, NombreLector, Fechadev)</t>
+    </r>
+  </si>
+  <si>
+    <t>codLibro</t>
+  </si>
+  <si>
+    <t>Titulo</t>
+  </si>
+  <si>
+    <t>Autor</t>
+  </si>
+  <si>
+    <t>Editorial</t>
+  </si>
+  <si>
+    <t>nombreLector</t>
+  </si>
+  <si>
+    <t>Fechadev</t>
+  </si>
+  <si>
+    <t>Variable compleja</t>
+  </si>
+  <si>
+    <t>Murray Spiegel</t>
+  </si>
+  <si>
+    <t>McGraw Hill</t>
+  </si>
+  <si>
+    <t>Pérez Gómez, Juan</t>
+  </si>
+  <si>
+    <t>Visual Basic 5</t>
+  </si>
+  <si>
+    <t>E. Petroustsos</t>
+  </si>
+  <si>
+    <t>Anaya</t>
+  </si>
+  <si>
+    <t>Ríos Terán, Ana</t>
+  </si>
+  <si>
+    <t>Estadística</t>
+  </si>
+  <si>
+    <t>Roca, René</t>
+  </si>
+  <si>
+    <t>Oracle University</t>
+  </si>
+  <si>
+    <t>Nancy Greenberg y Priya Nathan</t>
+  </si>
+  <si>
+    <t>Oracle Corp.</t>
+  </si>
+  <si>
+    <t>García Roque, Luis</t>
+  </si>
+  <si>
+    <t>Clipper 5.01</t>
+  </si>
+  <si>
+    <t>Ramalho</t>
+  </si>
+  <si>
+    <t>1 FN ok</t>
+  </si>
+  <si>
+    <t>2 FN ok</t>
+  </si>
+  <si>
+    <t>todos los atributos dependen de forma completa de ella</t>
+  </si>
+  <si>
+    <t>todos los atributos son atómicos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 FN </t>
+  </si>
+  <si>
+    <t>nombre del lector no depende del código del libro.</t>
+  </si>
+  <si>
+    <t>todos los atributos dependen de la clave "Restaurante"</t>
+  </si>
+  <si>
+    <t>para que no se repita los campos he separado el area de envio de la variedad de pizzas</t>
+  </si>
+  <si>
+    <t>8)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">UTILIZACIÓN DE RECURSOS DE LA UNIVERSIDAD. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Contiene información relativa a la utilización de los recursos de la universidad por parte de los profesores en periodos de tiempo:</t>
+    </r>
+  </si>
+  <si>
+    <t>DNI_Prof</t>
+  </si>
+  <si>
+    <t>Nombre_Prof</t>
+  </si>
+  <si>
+    <t>Despacho_Prof</t>
+  </si>
+  <si>
+    <t>Recurso</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Fecha_inicio</t>
+  </si>
+  <si>
+    <t>Fecha_fin</t>
+  </si>
+  <si>
+    <t>P. Martínez</t>
+  </si>
+  <si>
+    <t>2.2.B05</t>
+  </si>
+  <si>
+    <t>R122</t>
+  </si>
+  <si>
+    <t>Tablet PC</t>
+  </si>
+  <si>
+    <t>L. Moreno</t>
+  </si>
+  <si>
+    <t>2.2.A10</t>
+  </si>
+  <si>
+    <t>R100</t>
+  </si>
+  <si>
+    <t>Impresora</t>
+  </si>
+  <si>
+    <t>R200</t>
+  </si>
+  <si>
+    <t>Portátil</t>
+  </si>
+  <si>
+    <t>E. Castro</t>
+  </si>
+  <si>
+    <t>2.2.B23</t>
+  </si>
+  <si>
+    <t>D. Cuadra</t>
+  </si>
+  <si>
+    <t>2.1.B23</t>
+  </si>
+  <si>
+    <t>R300</t>
+  </si>
+  <si>
+    <t>Scaner</t>
+  </si>
+  <si>
+    <t>F. Calle</t>
+  </si>
+  <si>
+    <t>2.1.C11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 FN </t>
+  </si>
+  <si>
+    <t>3 FN</t>
+  </si>
+  <si>
+    <t>hay atributos que no dependen completamente de la clave primaria como son fecha inicio y fecha fin</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TURNOS DE TRABAJO: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Dada la siguiente relación ASIGNACIÓN (DNI, Nombre, Código_Tienda, Dirección_Tienda, Fecha, Turno) que contiene información relativa a la asignación de los turnos de trabajo de los empleados de los distintos centros de una cadena </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>de tiendas de moda:</t>
+    </r>
+  </si>
+  <si>
+    <t>DNI</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Código_Tienda</t>
+  </si>
+  <si>
+    <t>Dirección _Tienda</t>
+  </si>
+  <si>
+    <t>Turno</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>P. Martín</t>
+  </si>
+  <si>
+    <t>100A</t>
+  </si>
+  <si>
+    <t>Avd. Mayor, 23, Alcorcón</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>L. Sanz</t>
+  </si>
+  <si>
+    <t>D. Díaz</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>200B</t>
+  </si>
+  <si>
+    <t>C/ Sur 13, Alcorcón</t>
+  </si>
+  <si>
+    <t>E. López</t>
+  </si>
+  <si>
+    <t>300C</t>
+  </si>
+  <si>
+    <t>Pl. Central, Getafe</t>
+  </si>
+  <si>
+    <t>F. Monte</t>
+  </si>
+  <si>
+    <t>todos los atributos pertenecen a la clave</t>
+  </si>
+  <si>
+    <r>
+      <t>ACTIVIDADES DEPORTIVAS: A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lmacena información sobre la fecha y duración de las actividades deportivas que se organizan en un colegio</t>
+    </r>
+  </si>
+  <si>
+    <t>coda_actividad</t>
+  </si>
+  <si>
+    <t>nombre_actividad</t>
+  </si>
+  <si>
+    <t>DNI_Monitor</t>
+  </si>
+  <si>
+    <t>nombre_monitor</t>
+  </si>
+  <si>
+    <t>sala</t>
+  </si>
+  <si>
+    <t>feha</t>
+  </si>
+  <si>
+    <t>hora_inicio</t>
+  </si>
+  <si>
+    <t>hora_fin</t>
+  </si>
+  <si>
+    <t>pilates</t>
+  </si>
+  <si>
+    <t>fitness</t>
+  </si>
+  <si>
+    <t>yoga</t>
+  </si>
+  <si>
+    <t>gimnasia</t>
+  </si>
+  <si>
+    <t>j.luis hernandez</t>
+  </si>
+  <si>
+    <t>p. garcia</t>
+  </si>
+  <si>
+    <t>ana sanz</t>
+  </si>
+  <si>
+    <t>pabellon polideportivo</t>
+  </si>
+  <si>
+    <t>sala multiusos</t>
+  </si>
+  <si>
+    <t>sala musculacion</t>
+  </si>
+  <si>
+    <t>atributos se solapan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="00"/>
+  </numFmts>
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +468,79 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.5"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -135,7 +577,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -204,13 +646,90 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -242,53 +761,133 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="6" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="3"/>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="6" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="4" fillId="3" borderId="6" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="5" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Cálculo" xfId="2" builtinId="22"/>
     <cellStyle name="Entrada" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Salida" xfId="3" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -566,156 +1165,171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D44"/>
+  <dimension ref="A2:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="24"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="15"/>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="14"/>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="17"/>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="16"/>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="18"/>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="17"/>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="16"/>
       <c r="D6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="18"/>
-    </row>
-    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="17"/>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="18"/>
-    </row>
-    <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="17"/>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="18"/>
-    </row>
-    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="17"/>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="17"/>
-    </row>
-    <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="16"/>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="18"/>
-    </row>
-    <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="17"/>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18"/>
-    </row>
-    <row r="13" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="17"/>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="17"/>
-    </row>
-    <row r="14" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="16"/>
+    </row>
+    <row r="14" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="18"/>
-    </row>
-    <row r="15" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="17"/>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="18"/>
+      <c r="C15" s="17"/>
     </row>
     <row r="17" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="11"/>
+      <c r="B17" s="23"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>1</v>
       </c>
     </row>
@@ -816,69 +1430,69 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
+      <c r="A33" s="15"/>
       <c r="B33" s="5"/>
-      <c r="C33" s="17"/>
+      <c r="C33" s="16"/>
     </row>
     <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
+      <c r="A34" s="15"/>
       <c r="B34" s="5"/>
-      <c r="C34" s="18"/>
+      <c r="C34" s="17"/>
     </row>
     <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="16"/>
+      <c r="A35" s="15"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="17"/>
+      <c r="C35" s="16"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="16"/>
+      <c r="A36" s="15"/>
       <c r="B36" s="5"/>
-      <c r="C36" s="18"/>
+      <c r="C36" s="17"/>
     </row>
     <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
-      <c r="C37" s="18"/>
+      <c r="C37" s="17"/>
     </row>
     <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="18"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="17"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
-      <c r="C39" s="17"/>
+      <c r="C39" s="16"/>
     </row>
     <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
-      <c r="C40" s="18"/>
+      <c r="C40" s="17"/>
     </row>
     <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
-      <c r="C41" s="18"/>
+      <c r="C41" s="17"/>
     </row>
     <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
     </row>
     <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="18"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="17"/>
     </row>
     <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="18"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -888,4 +1502,2268 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+    </row>
+    <row r="3" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="28">
+        <v>1001</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="31">
+        <v>38457</v>
+      </c>
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="28">
+        <v>1004</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="31">
+        <v>38459</v>
+      </c>
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="28">
+        <v>1005</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="31">
+        <v>38458</v>
+      </c>
+      <c r="I6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="28">
+        <v>1006</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="31">
+        <v>38462</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="28">
+        <v>1007</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="31">
+        <v>38460</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="28">
+        <v>1001</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="31">
+        <v>38457</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="28">
+        <v>1004</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="31">
+        <v>38459</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="28">
+        <v>1005</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="31">
+        <v>38458</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="28">
+        <v>1006</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="31">
+        <v>38462</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="28">
+        <v>1007</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="31">
+        <v>38460</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="28">
+        <v>1001</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="28">
+        <v>1004</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="28">
+        <v>1005</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="28">
+        <v>1006</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="28">
+        <v>1007</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+    </row>
+    <row r="4" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="37">
+        <v>33456456</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="39">
+        <v>39083</v>
+      </c>
+      <c r="G5" s="39">
+        <v>39097</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="37">
+        <v>44556689</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="39">
+        <v>39083</v>
+      </c>
+      <c r="G6" s="39">
+        <v>39097</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="37">
+        <v>33456456</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="39">
+        <v>39094</v>
+      </c>
+      <c r="G7" s="39">
+        <v>39104</v>
+      </c>
+      <c r="I7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="37">
+        <v>11223344</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="39">
+        <v>39098</v>
+      </c>
+      <c r="G8" s="39">
+        <v>39113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="37">
+        <v>99771122</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="39">
+        <v>39105</v>
+      </c>
+      <c r="G9" s="39">
+        <v>39108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="37">
+        <v>33456456</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="39">
+        <v>39083</v>
+      </c>
+      <c r="G10" s="39">
+        <v>39097</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="37">
+        <v>99887766</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="39">
+        <v>39114</v>
+      </c>
+      <c r="G11" s="39">
+        <v>39119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="37">
+        <v>33456456</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="39">
+        <v>39114</v>
+      </c>
+      <c r="G12" s="39">
+        <v>39119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="37">
+        <v>33456456</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="37">
+        <v>44556689</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="42">
+        <v>33456456</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="37">
+        <v>11223344</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="37">
+        <v>99771122</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="42">
+        <v>33456456</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="37">
+        <v>99887766</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="42">
+        <v>33456456</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="37">
+        <v>33456456</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="37">
+        <v>44556689</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="37">
+        <v>33456456</v>
+      </c>
+      <c r="B28" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="37">
+        <v>11223344</v>
+      </c>
+      <c r="B29" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="37">
+        <v>99771122</v>
+      </c>
+      <c r="B30" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="37">
+        <v>33456456</v>
+      </c>
+      <c r="B31" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="37">
+        <v>99887766</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="42">
+        <v>33456456</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="39">
+        <v>39083</v>
+      </c>
+      <c r="C36" s="39">
+        <v>39097</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="39">
+        <v>39083</v>
+      </c>
+      <c r="C37" s="39">
+        <v>39097</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="39">
+        <v>39094</v>
+      </c>
+      <c r="C38" s="39">
+        <v>39104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="39">
+        <v>39098</v>
+      </c>
+      <c r="C39" s="39">
+        <v>39113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="39">
+        <v>39105</v>
+      </c>
+      <c r="C40" s="39">
+        <v>39108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="39">
+        <v>39083</v>
+      </c>
+      <c r="C41" s="39">
+        <v>39097</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" s="39">
+        <v>39114</v>
+      </c>
+      <c r="C42" s="39">
+        <v>39119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="39">
+        <v>39114</v>
+      </c>
+      <c r="C43" s="39">
+        <v>39119</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+    </row>
+    <row r="5" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="45">
+        <v>33456456</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" s="39">
+        <v>38962</v>
+      </c>
+      <c r="I6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="45">
+        <v>44556689</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="39">
+        <v>38962</v>
+      </c>
+      <c r="I7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="45">
+        <v>99771122</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="39">
+        <v>38962</v>
+      </c>
+      <c r="I8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="45">
+        <v>33456456</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="39">
+        <v>38963</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="45">
+        <v>11223344</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="39">
+        <v>38963</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="45">
+        <v>99887766</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="39">
+        <v>38963</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="45">
+        <v>11223344</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="39">
+        <v>38964</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="45">
+        <v>99887766</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="39">
+        <v>38964</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="45">
+        <v>44556689</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="39">
+        <v>38964</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="45">
+        <v>33456456</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="39">
+        <v>38965</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="45">
+        <v>33456456</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="45">
+        <v>44556689</v>
+      </c>
+      <c r="B20" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="45">
+        <v>99771122</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="45">
+        <v>33456456</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="45">
+        <v>11223344</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="45">
+        <v>99887766</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="46">
+        <v>11223344</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="46">
+        <v>99887766</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="45">
+        <v>44556689</v>
+      </c>
+      <c r="B27" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="46">
+        <v>33456456</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="45">
+        <v>33456456</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="39">
+        <v>38962</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="45">
+        <v>44556689</v>
+      </c>
+      <c r="B33" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="39">
+        <v>38962</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="45">
+        <v>99771122</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="39">
+        <v>38962</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="45">
+        <v>33456456</v>
+      </c>
+      <c r="B35" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="39">
+        <v>38963</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="45">
+        <v>11223344</v>
+      </c>
+      <c r="B36" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="39">
+        <v>38963</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="45">
+        <v>99887766</v>
+      </c>
+      <c r="B37" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="39">
+        <v>38963</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="47">
+        <v>11223344</v>
+      </c>
+      <c r="B38" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="39">
+        <v>38964</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="45">
+        <v>99887766</v>
+      </c>
+      <c r="B39" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="39">
+        <v>38964</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="45">
+        <v>44556689</v>
+      </c>
+      <c r="B40" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="39">
+        <v>38964</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="47">
+        <v>33456456</v>
+      </c>
+      <c r="B41" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="39">
+        <v>38965</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" s="36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" s="38" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="38" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" s="43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" s="43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52" s="43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" s="43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54" s="43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="50">
+        <v>1</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="51">
+        <v>54332221</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="52">
+        <v>39334</v>
+      </c>
+      <c r="G5" s="53">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H5" s="53">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="50">
+        <v>2</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="51">
+        <v>65434527</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" s="52">
+        <v>39334</v>
+      </c>
+      <c r="G6" s="53">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H6" s="53">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="50">
+        <v>1</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="51">
+        <v>54332221</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="52">
+        <v>39336</v>
+      </c>
+      <c r="G7" s="53">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="H7" s="53">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="J7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="50">
+        <v>1</v>
+      </c>
+      <c r="B8" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="51">
+        <v>54332221</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="52">
+        <v>39340</v>
+      </c>
+      <c r="G8" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="53">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="50">
+        <v>3</v>
+      </c>
+      <c r="B9" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="51">
+        <v>65434527</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="52">
+        <v>39340</v>
+      </c>
+      <c r="G9" s="53">
+        <v>0.375</v>
+      </c>
+      <c r="H9" s="53">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="50">
+        <v>4</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="51">
+        <v>54332221</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="52">
+        <v>39356</v>
+      </c>
+      <c r="G10" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="53">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="50">
+        <v>3</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="51">
+        <v>65434527</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="52">
+        <v>39340</v>
+      </c>
+      <c r="G11" s="53">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="H11" s="53">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="50">
+        <v>4</v>
+      </c>
+      <c r="B12" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="51">
+        <v>45673214</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" s="52">
+        <v>39356</v>
+      </c>
+      <c r="G12" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="53">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="50">
+        <v>2</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="51">
+        <v>45673214</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" s="52">
+        <v>39334</v>
+      </c>
+      <c r="G13" s="53">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H13" s="53">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="50">
+        <v>1</v>
+      </c>
+      <c r="B14" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="51">
+        <v>65434527</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" s="52">
+        <v>39334</v>
+      </c>
+      <c r="G14" s="53">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H14" s="53">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="50">
+        <v>1</v>
+      </c>
+      <c r="B19" s="51" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="50">
+        <v>2</v>
+      </c>
+      <c r="B20" s="51" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="54">
+        <v>1</v>
+      </c>
+      <c r="B21" s="55" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="54">
+        <v>1</v>
+      </c>
+      <c r="B22" s="55" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="50">
+        <v>3</v>
+      </c>
+      <c r="B23" s="51" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="54">
+        <v>4</v>
+      </c>
+      <c r="B24" s="55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="54">
+        <v>3</v>
+      </c>
+      <c r="B25" s="55" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="50">
+        <v>4</v>
+      </c>
+      <c r="B26" s="51" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="54">
+        <v>2</v>
+      </c>
+      <c r="B27" s="55" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="54">
+        <v>1</v>
+      </c>
+      <c r="B28" s="55" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="F31" s="49" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="50">
+        <v>2</v>
+      </c>
+      <c r="B32" s="51">
+        <v>65434527</v>
+      </c>
+      <c r="C32" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" s="52">
+        <v>39334</v>
+      </c>
+      <c r="E32" s="53">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F32" s="53">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="50">
+        <v>1</v>
+      </c>
+      <c r="B33" s="51">
+        <v>65434527</v>
+      </c>
+      <c r="C33" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" s="52">
+        <v>39334</v>
+      </c>
+      <c r="E33" s="53">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F33" s="53">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="50">
+        <v>3</v>
+      </c>
+      <c r="B34" s="51">
+        <v>65434527</v>
+      </c>
+      <c r="C34" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="52">
+        <v>39340</v>
+      </c>
+      <c r="E34" s="53">
+        <v>0.375</v>
+      </c>
+      <c r="F34" s="53">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="50">
+        <v>3</v>
+      </c>
+      <c r="B35" s="51">
+        <v>65434527</v>
+      </c>
+      <c r="C35" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="52">
+        <v>39340</v>
+      </c>
+      <c r="E35" s="53">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F35" s="53">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="50">
+        <v>1</v>
+      </c>
+      <c r="B36" s="51">
+        <v>54332221</v>
+      </c>
+      <c r="C36" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" s="52">
+        <v>39334</v>
+      </c>
+      <c r="E36" s="53">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F36" s="53">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="50">
+        <v>1</v>
+      </c>
+      <c r="B37" s="51">
+        <v>54332221</v>
+      </c>
+      <c r="C37" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" s="52">
+        <v>39336</v>
+      </c>
+      <c r="E37" s="53">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F37" s="53">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="50">
+        <v>1</v>
+      </c>
+      <c r="B38" s="51">
+        <v>54332221</v>
+      </c>
+      <c r="C38" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" s="52">
+        <v>39340</v>
+      </c>
+      <c r="E38" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="F38" s="53">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="50">
+        <v>4</v>
+      </c>
+      <c r="B39" s="51">
+        <v>54332221</v>
+      </c>
+      <c r="C39" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="52">
+        <v>39356</v>
+      </c>
+      <c r="E39" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="F39" s="53">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="50">
+        <v>2</v>
+      </c>
+      <c r="B40" s="51">
+        <v>45673214</v>
+      </c>
+      <c r="C40" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40" s="52">
+        <v>39334</v>
+      </c>
+      <c r="E40" s="53">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F40" s="53">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="50">
+        <v>4</v>
+      </c>
+      <c r="B41" s="51">
+        <v>45673214</v>
+      </c>
+      <c r="C41" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41" s="52">
+        <v>39356</v>
+      </c>
+      <c r="E41" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="F41" s="53">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" s="49" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="51">
+        <v>54332221</v>
+      </c>
+      <c r="B45" s="51" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="51">
+        <v>65434527</v>
+      </c>
+      <c r="B46" s="51" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="55">
+        <v>54332221</v>
+      </c>
+      <c r="B47" s="55" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="55">
+        <v>54332221</v>
+      </c>
+      <c r="B48" s="55" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="55">
+        <v>65434527</v>
+      </c>
+      <c r="B49" s="55" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="55">
+        <v>54332221</v>
+      </c>
+      <c r="B50" s="55" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="55">
+        <v>65434527</v>
+      </c>
+      <c r="B51" s="55" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="51">
+        <v>45673214</v>
+      </c>
+      <c r="B52" s="51" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="55">
+        <v>45673214</v>
+      </c>
+      <c r="B53" s="55" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="55">
+        <v>65434527</v>
+      </c>
+      <c r="B54" s="55" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A31:F41">
+    <sortState ref="A32:F41">
+      <sortCondition descending="1" ref="B31:B41"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>